--- a/ig/ch-core/StructureDefinition-ch-core-document-epr.xlsx
+++ b/ig/ch-core/StructureDefinition-ch-core-document-epr.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T16:13:45+00:00</t>
+    <t>2024-12-17T19:57:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(WORK))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -795,7 +795,7 @@
 * Results from operations might involve resources that are not identified.</t>
   </si>
   <si>
-    <t>fullUrl might not be [unique in the context of a resource](bundle.html#bundle-unique). Note that since [FHIR resources do not need to be served through the FHIR API](http://hl7.org/fhir/R4/references.html), the fullURL might be a URN or an absolute URL that does not end with the logical id of the resource (Resource.id). However, but if the fullUrl does look like a RESTful server URL (e.g. meets the [regex](http://hl7.org/fhir/R4/references.html#regex), then the 'id' portion of the fullUrl SHALL end with the Resource.id.
+    <t>fullUrl might not be [unique in the context of a resource](http://hl7.org/fhir/R4/bundle.html#bundle-unique). Note that since [FHIR resources do not need to be served through the FHIR API](http://hl7.org/fhir/R4/references.html), the fullURL might be a URN or an absolute URL that does not end with the logical id of the resource (Resource.id). However, but if the fullUrl does look like a RESTful server URL (e.g. meets the [regex](http://hl7.org/fhir/R4/references.html#regex), then the 'id' portion of the fullUrl SHALL end with the Resource.id.
 Note that the fullUrl is not the same as the canonical URL - it's an absolute url for an endpoint serving the resource (these will happen to have the same value on the canonical server for the resource with the canonical URL).</t>
   </si>
   <si>

--- a/ig/ch-core/StructureDefinition-ch-core-document-epr.xlsx
+++ b/ig/ch-core/StructureDefinition-ch-core-document-epr.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>6.0.0-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T19:57:45+00:00</t>
+    <t>2025-05-22T06:00:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -1632,11 +1632,11 @@
     <t>Bundle.entry:RelatedPerson.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {RelatedPerson}
+    <t xml:space="preserve">Resource {http://fhir.ch/ig/ch-core/StructureDefinition/ch-core-relatedperson}
 </t>
   </si>
   <si>
-    <t>A person that is related to a patient, but who is not a direct target of care</t>
+    <t>CH Core RelatedPerson</t>
   </si>
   <si>
     <t>Information about a person that is involved in the care for a patient, but who is not the target of healthcare, nor has a formal responsibility in the care process.</t>
@@ -2515,17 +2515,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="54.26953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.0078125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="15.69140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="28.78515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="46.52734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.44140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="13.44921875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="24.67578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="77.671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="66.58984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2534,26 +2534,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="168.19140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="49.01171875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.98046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="144.1953125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="42.01953125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.98828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="31.1328125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="42.9765625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="87.9765625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.84375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -9495,7 +9495,7 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>88</v>
@@ -9581,7 +9581,7 @@
         <v>79</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>100</v>
+        <v>249</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>79</v>
@@ -13121,7 +13121,7 @@
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>88</v>
@@ -13207,7 +13207,7 @@
         <v>79</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>100</v>
+        <v>249</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>79</v>
@@ -16745,7 +16745,7 @@
       </c>
       <c r="E126" s="2"/>
       <c r="F126" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G126" t="s" s="2">
         <v>88</v>
@@ -16831,7 +16831,7 @@
         <v>79</v>
       </c>
       <c r="AJ126" t="s" s="2">
-        <v>100</v>
+        <v>249</v>
       </c>
       <c r="AK126" t="s" s="2">
         <v>79</v>
@@ -20369,7 +20369,7 @@
       </c>
       <c r="E158" s="2"/>
       <c r="F158" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G158" t="s" s="2">
         <v>88</v>
@@ -20455,7 +20455,7 @@
         <v>79</v>
       </c>
       <c r="AJ158" t="s" s="2">
-        <v>100</v>
+        <v>249</v>
       </c>
       <c r="AK158" t="s" s="2">
         <v>79</v>
@@ -23993,7 +23993,7 @@
       </c>
       <c r="E190" s="2"/>
       <c r="F190" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G190" t="s" s="2">
         <v>88</v>
@@ -24079,7 +24079,7 @@
         <v>79</v>
       </c>
       <c r="AJ190" t="s" s="2">
-        <v>100</v>
+        <v>249</v>
       </c>
       <c r="AK190" t="s" s="2">
         <v>79</v>
@@ -27617,7 +27617,7 @@
       </c>
       <c r="E222" s="2"/>
       <c r="F222" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G222" t="s" s="2">
         <v>88</v>
@@ -27703,7 +27703,7 @@
         <v>79</v>
       </c>
       <c r="AJ222" t="s" s="2">
-        <v>100</v>
+        <v>249</v>
       </c>
       <c r="AK222" t="s" s="2">
         <v>79</v>
@@ -31241,7 +31241,7 @@
       </c>
       <c r="E254" s="2"/>
       <c r="F254" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G254" t="s" s="2">
         <v>88</v>
@@ -31327,7 +31327,7 @@
         <v>79</v>
       </c>
       <c r="AJ254" t="s" s="2">
-        <v>100</v>
+        <v>249</v>
       </c>
       <c r="AK254" t="s" s="2">
         <v>79</v>
@@ -34865,7 +34865,7 @@
       </c>
       <c r="E286" s="2"/>
       <c r="F286" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G286" t="s" s="2">
         <v>88</v>
@@ -34951,7 +34951,7 @@
         <v>79</v>
       </c>
       <c r="AJ286" t="s" s="2">
-        <v>100</v>
+        <v>249</v>
       </c>
       <c r="AK286" t="s" s="2">
         <v>79</v>
@@ -38489,7 +38489,7 @@
       </c>
       <c r="E318" s="2"/>
       <c r="F318" t="s" s="2">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="G318" t="s" s="2">
         <v>88</v>
@@ -38575,7 +38575,7 @@
         <v>79</v>
       </c>
       <c r="AJ318" t="s" s="2">
-        <v>100</v>
+        <v>249</v>
       </c>
       <c r="AK318" t="s" s="2">
         <v>79</v>

--- a/ig/ch-core/StructureDefinition-ch-core-document-epr.xlsx
+++ b/ig/ch-core/StructureDefinition-ch-core-document-epr.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0-ballot</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T06:00:59+00:00</t>
+    <t>2025-12-16T08:02:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -364,7 +364,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -503,7 +503,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -595,7 +595,7 @@
     <t>Bundle.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
